--- a/public/templates/Inquiry_template.xlsx
+++ b/public/templates/Inquiry_template.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushal\Desktop\Prolense\PolicyLens\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D212B9B1-9D25-4904-B7D8-BB3709D2C194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{533BE8DA-0546-44F4-8ABA-D34CC04EE89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18A470F7-719F-491D-B033-3E3B7A77F640}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18A470F7-719F-491D-B033-3E3B7A77F640}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table2!$A$1:$AJ$5</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Company Logo</t>
   </si>
@@ -315,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,18 +323,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -343,34 +336,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="36">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -697,240 +677,6 @@
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1032,20 +778,6 @@
     <tableColumn id="38" xr3:uid="{888A74D7-15AB-4898-AF6A-5E8212FC1080}" uniqueName="38" name="Scope of services_33" queryTableFieldId="38" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98657500-3A3A-4292-876B-0C5508049C32}" name="Table2" displayName="Table2" ref="A4:E39" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37" tableBorderDxfId="43">
-  <autoFilter ref="A4:E39" xr:uid="{98657500-3A3A-4292-876B-0C5508049C32}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DC162A42-4626-423C-AB90-0BB281AD70A4}" name="Scope" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{E7856100-03BC-4E49-B046-CE75FF69729C}" name="Location" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{A80F7A52-768C-471D-8BBB-833C5A221CD2}" name="Location type" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{0169F514-BA2C-4D33-8E5B-16A75BD537EC}" name="Add new record for each location" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{D857669F-624D-464B-952C-676E8A06A897}" name="Phase 1" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1352,24 +1084,24 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.6640625" customWidth="1"/>
-    <col min="35" max="35" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.6640625" customWidth="1"/>
-    <col min="37" max="37" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.7109375" customWidth="1"/>
+    <col min="35" max="35" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.7109375" customWidth="1"/>
+    <col min="37" max="37" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -1378,1059 +1110,440 @@
       <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" t="s">
         <v>1</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" t="s">
         <v>1</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" t="s">
         <v>41</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AI4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AJ4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="6" t="s">
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AJ5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E963C34-39E9-4997-ABD0-152854FA7CAE}">
-  <dimension ref="A2:E39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A5:E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
